--- a/processed data/model table.xlsx
+++ b/processed data/model table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\belsp\G\Projects\Lead\Eastern quoll movement\R\processed data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAFB008-4B23-43A1-AC1F-2474348589F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9359823-6D29-4AE9-BCFF-58D6E2381A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{99EC050B-8D11-4F88-894F-C5847975BEA5}"/>
+    <workbookView xWindow="8040" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{99EC050B-8D11-4F88-894F-C5847975BEA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,6 +179,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -214,12 +217,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -252,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -274,19 +283,16 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -608,7 +614,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="S8" sqref="S8:S9"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
@@ -738,49 +744,49 @@
       <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>0.28070000000000001</v>
       </c>
-      <c r="D4" s="11">
-        <v>0.28070000000000001</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="D4" s="10">
+        <v>0.44679999999999997</v>
+      </c>
+      <c r="E4" s="10">
         <v>0.59623400000000004</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>9.6119000000000003</v>
       </c>
-      <c r="G4" s="11">
-        <v>4.8273000000000001</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="G4" s="10">
+        <v>4.7473999999999998</v>
+      </c>
+      <c r="H4" s="11">
         <v>8.1810000000000008E-3</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>2.4056000000000002</v>
       </c>
-      <c r="J4" s="11">
-        <v>2.4117999999999999</v>
-      </c>
-      <c r="K4" s="11">
+      <c r="J4" s="10">
+        <v>2.4056000000000002</v>
+      </c>
+      <c r="K4" s="10">
         <v>0.12089900000000001</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
         <v>0.33516000000000001</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="10">
         <v>0</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="10">
         <v>3.7949999999999998E-2</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="10">
         <v>0</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="10">
         <v>0</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="10">
         <v>1.50498</v>
       </c>
     </row>
@@ -797,7 +803,7 @@
       <c r="D5" s="8">
         <v>5.2709999999999999</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>2.7010000000000001E-4</v>
       </c>
       <c r="F5" s="8">
@@ -806,7 +812,7 @@
       <c r="G5" s="8">
         <v>6.5003000000000002</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="12">
         <v>1.4817000000000001E-3</v>
       </c>
       <c r="I5" s="8">
@@ -847,7 +853,7 @@
       <c r="D6" s="8">
         <v>5.4551999999999996</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="12">
         <v>1.437E-4</v>
       </c>
       <c r="F6" s="8">
@@ -856,7 +862,7 @@
       <c r="G6" s="8">
         <v>6.8838999999999997</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="12">
         <v>1.0118E-3</v>
       </c>
       <c r="I6" s="8">
@@ -1159,7 +1165,7 @@
       <c r="G12" s="8">
         <v>13.724399999999999</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="12">
         <v>1.0109999999999999E-6</v>
       </c>
       <c r="I12" s="8">
@@ -1209,7 +1215,7 @@
       <c r="G13" s="8">
         <v>9.1128999999999998</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="12">
         <v>1.115E-4</v>
       </c>
       <c r="I13" s="8">
@@ -1462,7 +1468,7 @@
       <c r="G18" s="8">
         <v>3.1044</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="12">
         <v>4.5870000000000001E-2</v>
       </c>
       <c r="I18" s="8">
@@ -1562,7 +1568,7 @@
       <c r="G20" s="8">
         <v>3.1071</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="12">
         <v>4.233E-2</v>
       </c>
       <c r="I20" s="8">
@@ -1637,13 +1643,13 @@
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>225723</v>
       </c>
       <c r="D23" s="8">
         <v>5.8250000000000002</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="12">
         <v>5.7269999999999998E-9</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -1655,7 +1661,7 @@
       <c r="H23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="9">
         <v>221575</v>
       </c>
       <c r="J23" s="8">
@@ -1679,7 +1685,7 @@
       <c r="P23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="9">
         <v>314790</v>
       </c>
     </row>
@@ -1693,7 +1699,7 @@
       <c r="D24" s="8">
         <v>2.8290000000000002</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="12">
         <v>4.6719999999999999E-3</v>
       </c>
       <c r="F24" s="8" t="s">
@@ -1845,7 +1851,7 @@
       <c r="G28" s="8">
         <v>15.726000000000001</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="12">
         <v>1.3185000000000001E-2</v>
       </c>
       <c r="I28" s="8">
@@ -1854,7 +1860,7 @@
       <c r="J28" s="8">
         <v>15.076000000000001</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="12">
         <v>1.3370000000000001E-3</v>
       </c>
       <c r="L28" s="8" t="s">
@@ -1895,7 +1901,7 @@
       <c r="G29" s="8">
         <v>0.31192999999999999</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="12">
         <v>2.6159999999999999E-2</v>
       </c>
       <c r="I29" s="8">
@@ -1986,7 +1992,7 @@
       <c r="D31" s="8">
         <v>528.85</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="12">
         <v>2.192E-8</v>
       </c>
       <c r="F31" s="8">
@@ -1995,7 +2001,7 @@
       <c r="G31" s="8">
         <v>510.3</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="12">
         <v>1.35E-4</v>
       </c>
       <c r="I31" s="8">
